--- a/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E185BC0-524D-4C6F-833D-A26E319DAE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6420C0CD-1DA4-4FC9-A39D-7829989ABB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,27 +222,6 @@
     <t>E220</t>
   </si>
   <si>
-    <t>A24</t>
-  </si>
-  <si>
-    <t>B24</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>G24</t>
-  </si>
-  <si>
-    <t>H24</t>
-  </si>
-  <si>
-    <t>I24</t>
-  </si>
-  <si>
-    <t>J24</t>
-  </si>
-  <si>
     <t>delivery_variables_v1.xlsx</t>
   </si>
   <si>
@@ -256,6 +235,27 @@
   </si>
   <si>
     <t>DeliveryVars_CS3</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>B25</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>G25</t>
+  </si>
+  <si>
+    <t>H25</t>
+  </si>
+  <si>
+    <t>I25</t>
+  </si>
+  <si>
+    <t>J25</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -671,7 +671,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -713,7 +713,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -727,7 +727,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -741,7 +741,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -757,7 +757,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -765,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -798,7 +798,7 @@
         <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -820,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -831,7 +831,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -842,7 +842,7 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -859,7 +859,7 @@
         <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -881,7 +881,7 @@
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -909,7 +909,7 @@
         <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">

--- a/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6420C0CD-1DA4-4FC9-A39D-7829989ABB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F735A34D-86D2-4E31-9026-EB0D97ADB926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2700" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
@@ -237,25 +237,25 @@
     <t>DeliveryVars_CS3</t>
   </si>
   <si>
-    <t>A25</t>
-  </si>
-  <si>
-    <t>B25</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>G25</t>
-  </si>
-  <si>
-    <t>H25</t>
-  </si>
-  <si>
-    <t>I25</t>
-  </si>
-  <si>
-    <t>J25</t>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>H26</t>
+  </si>
+  <si>
+    <t>I26</t>
+  </si>
+  <si>
+    <t>J26</t>
   </si>
 </sst>
 </file>

--- a/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F735A34D-86D2-4E31-9026-EB0D97ADB926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3656213D-8742-460D-A86F-4F586E534701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2700" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,25 +237,25 @@
     <t>DeliveryVars_CS3</t>
   </si>
   <si>
-    <t>A26</t>
-  </si>
-  <si>
-    <t>B26</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>G26</t>
-  </si>
-  <si>
-    <t>H26</t>
-  </si>
-  <si>
-    <t>I26</t>
-  </si>
-  <si>
-    <t>J26</t>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>G28</t>
+  </si>
+  <si>
+    <t>H28</t>
+  </si>
+  <si>
+    <t>I28</t>
+  </si>
+  <si>
+    <t>J28</t>
+  </si>
+  <si>
+    <t>A28</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -671,7 +671,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -713,7 +713,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -727,7 +727,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -741,7 +741,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">

--- a/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3656213D-8742-460D-A86F-4F586E534701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E07AEA1-F58F-4815-B59F-0AEB6F214D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2700" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>SV Dss path names</t>
   </si>
   <si>
-    <t>cs3rpt2022_all_demand_units_v20250113.xlsx</t>
-  </si>
-  <si>
     <t>all_demand_units</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>A2</t>
   </si>
   <si>
-    <t>O389</t>
-  </si>
-  <si>
     <t>DV DSS Path Indices</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
     <t>delivery_variables_v1.xlsx</t>
   </si>
   <si>
-    <t>E377</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -237,25 +228,34 @@
     <t>DeliveryVars_CS3</t>
   </si>
   <si>
-    <t>B28</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>G28</t>
-  </si>
-  <si>
-    <t>H28</t>
-  </si>
-  <si>
-    <t>I28</t>
-  </si>
-  <si>
-    <t>J28</t>
-  </si>
-  <si>
-    <t>A28</t>
+    <t>cs3rpt2022_all_demand_units_v20251130.xlsx</t>
+  </si>
+  <si>
+    <t>E258</t>
+  </si>
+  <si>
+    <t>O440</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>G31</t>
+  </si>
+  <si>
+    <t>H31</t>
+  </si>
+  <si>
+    <t>I31</t>
+  </si>
+  <si>
+    <t>J31</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -657,22 +657,24 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -685,12 +687,13 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -699,12 +702,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -713,8 +717,9 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -727,12 +732,13 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -741,8 +747,9 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -757,7 +764,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -765,7 +772,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -779,7 +786,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -792,13 +799,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -809,7 +816,7 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -820,96 +827,96 @@
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">

--- a/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E07AEA1-F58F-4815-B59F-0AEB6F214D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34202BD6-C7CF-4B96-8E3E-8AF3BE0E477B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
@@ -237,25 +237,25 @@
     <t>O440</t>
   </si>
   <si>
-    <t>A31</t>
-  </si>
-  <si>
-    <t>B31</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>G31</t>
-  </si>
-  <si>
-    <t>H31</t>
-  </si>
-  <si>
-    <t>I31</t>
-  </si>
-  <si>
-    <t>J31</t>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>B33</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>G33</t>
+  </si>
+  <si>
+    <t>H33</t>
+  </si>
+  <si>
+    <t>I33</t>
+  </si>
+  <si>
+    <t>J33</t>
   </si>
 </sst>
 </file>

--- a/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34202BD6-C7CF-4B96-8E3E-8AF3BE0E477B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C77F08E-82E8-4379-94CF-69037C17A3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>E258</t>
   </si>
   <si>
-    <t>O440</t>
-  </si>
-  <si>
     <t>A33</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>J33</t>
+  </si>
+  <si>
+    <t>O47</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -672,7 +672,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -687,7 +687,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -717,7 +717,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -732,7 +732,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -747,7 +747,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -863,7 +863,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>

--- a/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C77F08E-82E8-4379-94CF-69037C17A3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313B15A-7C3D-4DBC-AB2A-32DA815C8893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,28 +234,28 @@
     <t>E258</t>
   </si>
   <si>
-    <t>A33</t>
-  </si>
-  <si>
-    <t>B33</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>G33</t>
-  </si>
-  <si>
-    <t>H33</t>
-  </si>
-  <si>
-    <t>I33</t>
-  </si>
-  <si>
-    <t>J33</t>
-  </si>
-  <si>
     <t>O47</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>B36</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>G36</t>
+  </si>
+  <si>
+    <t>H36</t>
+  </si>
+  <si>
+    <t>I36</t>
+  </si>
+  <si>
+    <t>J36</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -672,7 +672,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -687,7 +687,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -717,7 +717,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -732,7 +732,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -747,7 +747,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -863,7 +863,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>

--- a/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8655977-13C8-4D12-942F-25ED6CF35FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887259F5-4437-469A-9090-E0D5B9DAD7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,25 +238,25 @@
     <t>O47</t>
   </si>
   <si>
-    <t>A39</t>
-  </si>
-  <si>
-    <t>B39</t>
-  </si>
-  <si>
-    <t>C39</t>
-  </si>
-  <si>
-    <t>G39</t>
-  </si>
-  <si>
-    <t>H39</t>
-  </si>
-  <si>
-    <t>I39</t>
-  </si>
-  <si>
-    <t>J39</t>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>G40</t>
+  </si>
+  <si>
+    <t>H40</t>
+  </si>
+  <si>
+    <t>I40</t>
+  </si>
+  <si>
+    <t>J40</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887259F5-4437-469A-9090-E0D5B9DAD7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4E48B6-62FD-45E6-B148-D7130CC2419D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,31 +232,31 @@
     <t>cs3rpt2022_all_demand_units_v20251130.xlsx</t>
   </si>
   <si>
-    <t>E258</t>
-  </si>
-  <si>
     <t>O47</t>
   </si>
   <si>
-    <t>A40</t>
-  </si>
-  <si>
-    <t>B40</t>
-  </si>
-  <si>
-    <t>C40</t>
-  </si>
-  <si>
-    <t>G40</t>
-  </si>
-  <si>
-    <t>H40</t>
-  </si>
-  <si>
-    <t>I40</t>
-  </si>
-  <si>
-    <t>J40</t>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>B43</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>G43</t>
+  </si>
+  <si>
+    <t>H43</t>
+  </si>
+  <si>
+    <t>I43</t>
+  </si>
+  <si>
+    <t>J43</t>
+  </si>
+  <si>
+    <t>E261</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -673,7 +673,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -688,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -703,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -718,7 +718,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -733,7 +733,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -748,7 +748,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -787,7 +787,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -864,7 +864,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>

--- a/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4E48B6-62FD-45E6-B148-D7130CC2419D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEB952D-DD10-4926-836A-A0AAB7FB3F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,28 +235,28 @@
     <t>O47</t>
   </si>
   <si>
-    <t>A43</t>
-  </si>
-  <si>
-    <t>B43</t>
-  </si>
-  <si>
-    <t>C43</t>
-  </si>
-  <si>
-    <t>G43</t>
-  </si>
-  <si>
-    <t>H43</t>
-  </si>
-  <si>
-    <t>I43</t>
-  </si>
-  <si>
-    <t>J43</t>
-  </si>
-  <si>
     <t>E261</t>
+  </si>
+  <si>
+    <t>A46</t>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>C46</t>
+  </si>
+  <si>
+    <t>G46</t>
+  </si>
+  <si>
+    <t>H46</t>
+  </si>
+  <si>
+    <t>I46</t>
+  </si>
+  <si>
+    <t>J46</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -673,7 +673,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -688,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -703,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -718,7 +718,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -733,7 +733,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -748,7 +748,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -787,7 +787,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">

--- a/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
+++ b/notebooks/CalSim3DeliveryDataExtractionInitFile_v1.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEB952D-DD10-4926-836A-A0AAB7FB3F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E098E9B-5E73-4838-A90C-D23D90C57F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2700" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -235,9 +234,6 @@
     <t>O47</t>
   </si>
   <si>
-    <t>E261</t>
-  </si>
-  <si>
     <t>A46</t>
   </si>
   <si>
@@ -257,6 +253,9 @@
   </si>
   <si>
     <t>J46</t>
+  </si>
+  <si>
+    <t>E265</t>
   </si>
 </sst>
 </file>
@@ -596,7 +595,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -673,7 +672,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -688,7 +687,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -703,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -718,7 +717,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -733,7 +732,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -748,7 +747,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -787,7 +786,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
